--- a/dummy data/users.xlsx
+++ b/dummy data/users.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jorge.l.pabon.cruz\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Disk 4/OneDrive/GitHub/Event-Manager-Global/dummy data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{59D5AC69-E6F2-4AAE-9FDA-FF055C80E72C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FE8B466-4CB6-7849-9E04-BA65A3B18FA8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{3C8C2A5A-EC0B-45BA-9068-59E9EAA078D1}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="22980" windowHeight="14420" xr2:uid="{3C8C2A5A-EC0B-45BA-9068-59E9EAA078D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="0" hidden="1">Sheet2!$A$1:$C$4</definedName>
+    <definedName name="ExternalData_1" localSheetId="0" hidden="1">Sheet2!$A$1:$D$4</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
     <t>Username</t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>poc</t>
+  </si>
+  <si>
+    <t>API_Key</t>
   </si>
 </sst>
 </file>
@@ -106,7 +109,10 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -128,10 +134,11 @@
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="1" xr16:uid="{24406FAC-ADD8-4AE5-8400-1B7B227E5BBA}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="4">
-    <queryTableFields count="3">
+  <queryTableRefresh nextId="5">
+    <queryTableFields count="4">
       <queryTableField id="1" name="Username" tableColumnId="1"/>
       <queryTableField id="2" name="Password" tableColumnId="2"/>
+      <queryTableField id="4" dataBound="0" tableColumnId="4"/>
       <queryTableField id="3" name="Role" tableColumnId="3"/>
     </queryTableFields>
   </queryTableRefresh>
@@ -139,11 +146,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{22789BF1-577D-4A03-AD78-B589C01D803E}" name="users" displayName="users" ref="A1:C4" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C4" xr:uid="{3297AE2F-7A5F-4CBB-9132-614A5932102C}"/>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{972E40A6-60AE-4C11-8169-FC33D723E08B}" uniqueName="1" name="Username" queryTableFieldId="1" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{9C96668D-E6F4-40A7-8D4B-75971BBA1686}" uniqueName="2" name="Password" queryTableFieldId="2" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{22789BF1-577D-4A03-AD78-B589C01D803E}" name="users" displayName="users" ref="A1:D4" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:D4" xr:uid="{3297AE2F-7A5F-4CBB-9132-614A5932102C}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{972E40A6-60AE-4C11-8169-FC33D723E08B}" uniqueName="1" name="Username" queryTableFieldId="1" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{9C96668D-E6F4-40A7-8D4B-75971BBA1686}" uniqueName="2" name="Password" queryTableFieldId="2" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{D9BAC6E8-42D6-5248-9DD1-893225BC52A2}" uniqueName="4" name="API_Key" queryTableFieldId="4" dataDxfId="0"/>
     <tableColumn id="3" xr3:uid="{624F42DF-6CC6-4963-B0F4-FDFDAA330545}" uniqueName="3" name="Role" queryTableFieldId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -447,18 +455,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{284DBAE8-EBB6-4E9F-AC37-CA5E5E81378A}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="65.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="65.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="65.5" customWidth="1"/>
+    <col min="4" max="4" width="7.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -466,39 +477,45 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1"/>
+      <c r="D2">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1"/>
+      <c r="D3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1"/>
+      <c r="D4">
         <v>2</v>
       </c>
     </row>
@@ -516,7 +533,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
